--- a/data/datacollectionmonths.xlsx
+++ b/data/datacollectionmonths.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Dropbox/GRADSCHOOL/Dissertation/R_dissertation/Ch3_piru_enhancement_Git/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E85162F6-8AC8-6E48-B80A-40525E7CB3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F328067E-ECE6-DE40-AF89-FDD430D46988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440"/>
+    <workbookView xWindow="35780" yWindow="960" windowWidth="27640" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datacollectionmonths" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
   <si>
     <t>year_1</t>
   </si>
@@ -62,6 +63,12 @@
   </si>
   <si>
     <t>PAR at highest on the Summer Solstice</t>
+  </si>
+  <si>
+    <t>percentcover_2018</t>
+  </si>
+  <si>
+    <t>survey</t>
   </si>
 </sst>
 </file>
@@ -551,9 +558,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1750,4 +1758,726 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="10" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2019</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>2019</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>2019</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>2019</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>2019</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>2019</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>2019</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>2020</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>2020</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>39</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>2020</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>2020</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>2020</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>2020</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>2020</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>45</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2020</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>2020</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>2021</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>49</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>2021</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2021</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>51</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>2021</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>2021</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>2021</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>2021</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>2021</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>2021</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>2021</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>2021</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/datacollectionmonths.xlsx
+++ b/data/datacollectionmonths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Dropbox/GRADSCHOOL/Dissertation/R_dissertation/Ch3_piru_enhancement_Git/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephaniema/Dropbox/GRADSCHOOL/Dissertation/R_dissertation/Ch3_piru_enhancement_Git/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F328067E-ECE6-DE40-AF89-FDD430D46988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A04C2AE-CA3C-EE4A-A9C9-CB3BC06D8F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35780" yWindow="960" windowWidth="27640" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datacollectionmonths" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="18">
   <si>
     <t>year_1</t>
   </si>
@@ -70,11 +70,17 @@
   <si>
     <t>survey</t>
   </si>
+  <si>
+    <t>WINTER PAR, WINTER TDR --&gt; predict spring survival, predict summer survival</t>
+  </si>
+  <si>
+    <t>SPRING PAR, SPRING TDR --&gt; predict summer survival</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -558,10 +564,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -916,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1761,19 +1766,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="10" width="10.83203125" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1786,23 +1788,23 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2018</v>
       </c>
@@ -1812,14 +1814,14 @@
       <c r="D2">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2018</v>
       </c>
@@ -1829,14 +1831,14 @@
       <c r="D3">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2018</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1860,14 +1862,17 @@
       <c r="D5">
         <v>15</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1880,17 +1885,17 @@
       <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2018</v>
       </c>
@@ -1901,7 +1906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>2018</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2018</v>
       </c>
@@ -1923,7 +1928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2018</v>
       </c>
@@ -1933,11 +1938,11 @@
       <c r="D10">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2018</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>2018</v>
       </c>
@@ -1959,7 +1964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2018</v>
       </c>
@@ -1969,17 +1974,20 @@
       <c r="D13">
         <v>23</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2019</v>
       </c>
@@ -1989,17 +1997,17 @@
       <c r="D14">
         <v>24</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>2019</v>
       </c>
@@ -2009,8 +2017,11 @@
       <c r="D15">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2019</v>
       </c>
@@ -2020,20 +2031,20 @@
       <c r="D16">
         <v>26</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>2019</v>
       </c>
@@ -2054,16 +2065,16 @@
       <c r="D18">
         <v>28</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
         <v>8</v>
       </c>
       <c r="K18" t="s">
@@ -2080,10 +2091,10 @@
       <c r="D19">
         <v>29</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2097,7 +2108,7 @@
       <c r="D20">
         <v>30</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2122,13 +2133,13 @@
       <c r="D22">
         <v>32</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2153,13 +2164,13 @@
       <c r="D24">
         <v>34</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2206,13 +2217,13 @@
       <c r="D28">
         <v>38</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2226,7 +2237,7 @@
       <c r="D29">
         <v>39</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2240,13 +2251,13 @@
       <c r="D30">
         <v>40</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2304,10 +2315,10 @@
       <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2354,10 +2365,10 @@
       <c r="D39">
         <v>49</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2382,10 +2393,10 @@
       <c r="D41">
         <v>51</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
         <v>10</v>
       </c>
     </row>
